--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$T$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="184">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -232,9 +232,8 @@
     <t>VALIDAZIONE_CDA2_RAD_CT1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>2024-07-10T11:09:42.8829628+02:00</t>
@@ -249,9 +248,8 @@
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>2024-07-10T11:14:41.8060329+02:00</t>
@@ -261,28 +259,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.ed4cbfadb8d67457e2f7beb7b34077300ae6a474e1dade7ad6eb57a9ec44e968.92552bc5c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>DICOM Object Catalog, Storia Clinica, Precedenti esami eseguiti non trattati</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>(vedi case test con id 12)</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -668,6 +644,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>(vedi case test con id 12)</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
@@ -756,23 +735,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.190.4.4.9696a2b8e1e5cc003b23fe2f6e2144daa3cff2f48e7d28b3f5f657281a3098de.85976e525f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2024-07-10T10:00:05.8484257+02:00</t>
-  </si>
-  <si>
-    <t>d522888bfec81a91</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.b4765aaea0e9350420eae66ee9610011f4f678a1019e32fb46dc1a51a8650dd6.7b7af4e83e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -1946,12 +1908,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{7E99F76B-7C10-4F76-8DE4-99850F132996}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{DA5B703A-BBCE-4820-BAD0-073AE6AAEA32}">
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{ABCD4B37-4F05-4254-8F37-4D75877D5AA1}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{E44848E1-FAC4-4C16-87EE-C99586E77BD7}">
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
@@ -2180,15 +2142,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T651"/>
+  <sheetPr/>
+  <dimension ref="A1:T648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -2535,7 +2497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="96" hidden="1" spans="1:20">
+    <row r="12" ht="96.75" spans="1:20">
       <c r="A12" s="24">
         <v>3</v>
       </c>
@@ -2573,7 +2535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="96.75" hidden="1" spans="1:20">
+    <row r="13" ht="96.75" spans="1:20">
       <c r="A13" s="24">
         <v>4</v>
       </c>
@@ -2611,7 +2573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="96.75" hidden="1" spans="1:20">
+    <row r="14" ht="96.75" spans="1:20">
       <c r="A14" s="24">
         <v>5</v>
       </c>
@@ -2649,9 +2611,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" ht="84.75" spans="1:20">
+    <row r="15" ht="72.75" spans="1:20">
       <c r="A15" s="24">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>26</v>
@@ -2693,9 +2655,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="84.75" spans="1:20">
+    <row r="16" ht="72.75" spans="1:20">
       <c r="A16" s="24">
-        <v>12</v>
+        <v>447</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>26</v>
@@ -2737,20 +2699,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" ht="84.75" hidden="1" spans="1:20">
+    <row r="17" ht="108.75" spans="1:20">
       <c r="A17" s="24">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>50</v>
+      <c r="C17" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="30" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="27"/>
@@ -2771,13 +2733,13 @@
       <c r="Q17" s="36"/>
       <c r="R17" s="40"/>
       <c r="S17" s="41"/>
-      <c r="T17" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" ht="84.75" hidden="1" spans="1:20">
+      <c r="T17" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" ht="108.75" spans="1:20">
       <c r="A18" s="24">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>26</v>
@@ -2786,10 +2748,10 @@
         <v>50</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="26" t="s">
         <v>65</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="28"/>
@@ -2809,13 +2771,13 @@
       <c r="Q18" s="36"/>
       <c r="R18" s="40"/>
       <c r="S18" s="41"/>
-      <c r="T18" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" ht="108.75" hidden="1" spans="1:20">
+      <c r="T18" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" ht="108.75" spans="1:20">
       <c r="A19" s="24">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>26</v>
@@ -2837,7 +2799,7 @@
         <v>42</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -2848,12 +2810,12 @@
       <c r="R19" s="40"/>
       <c r="S19" s="41"/>
       <c r="T19" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" ht="108.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="108.75" spans="1:20">
       <c r="A20" s="24">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>26</v>
@@ -2862,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>68</v>
@@ -2875,7 +2837,7 @@
         <v>42</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
@@ -2886,12 +2848,12 @@
       <c r="R20" s="40"/>
       <c r="S20" s="41"/>
       <c r="T20" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" ht="108.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="60.75" spans="1:20">
       <c r="A21" s="24">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>26</v>
@@ -2900,36 +2862,38 @@
         <v>27</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="J21" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>72</v>
-      </c>
+      <c r="J21" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
       <c r="N21" s="26"/>
       <c r="O21" s="36"/>
-      <c r="P21" s="26"/>
+      <c r="P21" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="Q21" s="36"/>
-      <c r="R21" s="40"/>
+      <c r="R21" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="S21" s="41"/>
       <c r="T21" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" ht="108.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" ht="60.75" spans="1:20">
       <c r="A22" s="24">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>26</v>
@@ -2938,36 +2902,38 @@
         <v>50</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="30" t="s">
         <v>74</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>76</v>
-      </c>
+      <c r="J22" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="26"/>
       <c r="O22" s="36"/>
-      <c r="P22" s="26"/>
+      <c r="P22" s="26" t="s">
+        <v>73</v>
+      </c>
       <c r="Q22" s="36"/>
-      <c r="R22" s="40"/>
+      <c r="R22" s="40" t="s">
+        <v>33</v>
+      </c>
       <c r="S22" s="41"/>
       <c r="T22" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" ht="60.75" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" ht="72.75" spans="1:20">
       <c r="A23" s="24">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>26</v>
@@ -2976,78 +2942,74 @@
         <v>27</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="36"/>
+      <c r="J23" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
       <c r="N23" s="26"/>
       <c r="O23" s="36"/>
-      <c r="P23" s="26" t="s">
-        <v>79</v>
-      </c>
+      <c r="P23" s="26"/>
       <c r="Q23" s="36"/>
-      <c r="R23" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="R23" s="40"/>
       <c r="S23" s="41"/>
       <c r="T23" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" ht="60.75" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="72.75" spans="1:20">
       <c r="A24" s="24">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>50</v>
+      <c r="C24" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="36"/>
+      <c r="J24" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="26"/>
       <c r="O24" s="36"/>
-      <c r="P24" s="26" t="s">
-        <v>79</v>
-      </c>
+      <c r="P24" s="26"/>
       <c r="Q24" s="36"/>
-      <c r="R24" s="40" t="s">
-        <v>33</v>
-      </c>
+      <c r="R24" s="40"/>
       <c r="S24" s="41"/>
       <c r="T24" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="72.75" spans="1:20">
       <c r="A25" s="24">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>26</v>
@@ -3080,12 +3042,12 @@
       <c r="R25" s="40"/>
       <c r="S25" s="41"/>
       <c r="T25" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="72.75" spans="1:20">
       <c r="A26" s="24">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>26</v>
@@ -3106,24 +3068,32 @@
       <c r="J26" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="36"/>
+      <c r="L26" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="26"/>
+      <c r="O26" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="Q26" s="36"/>
       <c r="R26" s="40"/>
       <c r="S26" s="41"/>
       <c r="T26" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="72.75" spans="1:20">
       <c r="A27" s="24">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>26</v>
@@ -3132,10 +3102,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="28"/>
@@ -3145,7 +3115,7 @@
         <v>42</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
@@ -3156,12 +3126,12 @@
       <c r="R27" s="40"/>
       <c r="S27" s="41"/>
       <c r="T27" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="72.75" spans="1:20">
       <c r="A28" s="24">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>26</v>
@@ -3170,10 +3140,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
@@ -3182,32 +3152,24 @@
       <c r="J28" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P28" s="26" t="s">
+      <c r="K28" s="36" t="s">
         <v>93</v>
       </c>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="26"/>
       <c r="Q28" s="36"/>
       <c r="R28" s="40"/>
       <c r="S28" s="41"/>
       <c r="T28" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" ht="72.75" spans="1:20">
       <c r="A29" s="24">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>26</v>
@@ -3240,12 +3202,12 @@
       <c r="R29" s="40"/>
       <c r="S29" s="41"/>
       <c r="T29" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="90.75" spans="1:20">
       <c r="A30" s="24">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>26</v>
@@ -3278,12 +3240,12 @@
       <c r="R30" s="40"/>
       <c r="S30" s="41"/>
       <c r="T30" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" ht="72.75" spans="1:20">
       <c r="A31" s="24">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>26</v>
@@ -3316,12 +3278,12 @@
       <c r="R31" s="40"/>
       <c r="S31" s="41"/>
       <c r="T31" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" ht="90.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" ht="72.75" spans="1:20">
       <c r="A32" s="24">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>26</v>
@@ -3335,31 +3297,47 @@
       <c r="E32" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="37" t="s">
+      <c r="F32" s="27">
+        <v>45495</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="26"/>
+      <c r="M32" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="Q32" s="36"/>
       <c r="R32" s="40"/>
       <c r="S32" s="41"/>
       <c r="T32" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" ht="72.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" ht="72.75" spans="1:20">
       <c r="A33" s="24">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>26</v>
@@ -3368,10 +3346,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="28"/>
@@ -3381,7 +3359,7 @@
         <v>42</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
@@ -3392,78 +3370,62 @@
       <c r="R33" s="40"/>
       <c r="S33" s="41"/>
       <c r="T33" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" ht="72.75" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" ht="84.75" spans="1:20">
       <c r="A34" s="24">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>27</v>
+      <c r="C34" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="27">
-        <v>45495</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>93</v>
-      </c>
+      <c r="K34" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="26"/>
       <c r="Q34" s="36"/>
       <c r="R34" s="40"/>
       <c r="S34" s="41"/>
       <c r="T34" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" ht="72" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="135" customHeight="1" spans="1:20">
       <c r="A35" s="24">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>27</v>
+      <c r="C35" s="29" t="s">
+        <v>50</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="28"/>
@@ -3473,7 +3435,7 @@
         <v>42</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
@@ -3484,12 +3446,12 @@
       <c r="R35" s="40"/>
       <c r="S35" s="41"/>
       <c r="T35" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" ht="84.75" hidden="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" ht="135" customHeight="1" spans="1:20">
       <c r="A36" s="24">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>26</v>
@@ -3498,10 +3460,10 @@
         <v>50</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="28"/>
@@ -3511,7 +3473,7 @@
         <v>42</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
@@ -3522,12 +3484,12 @@
       <c r="R36" s="40"/>
       <c r="S36" s="41"/>
       <c r="T36" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" ht="135" customHeight="1" spans="1:20">
       <c r="A37" s="24">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="25" t="s">
         <v>26</v>
@@ -3536,10 +3498,10 @@
         <v>50</v>
       </c>
       <c r="D37" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>120</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>121</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="28"/>
@@ -3548,24 +3510,32 @@
       <c r="J37" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="36" t="s">
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="26"/>
+      <c r="O37" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" s="26" t="s">
+        <v>87</v>
+      </c>
       <c r="Q37" s="36"/>
       <c r="R37" s="40"/>
       <c r="S37" s="41"/>
       <c r="T37" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" ht="135" customHeight="1" spans="1:20">
       <c r="A38" s="24">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>26</v>
@@ -3574,10 +3544,10 @@
         <v>50</v>
       </c>
       <c r="D38" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>122</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>123</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="28"/>
@@ -3587,7 +3557,7 @@
         <v>42</v>
       </c>
       <c r="K38" s="36" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
@@ -3598,12 +3568,12 @@
       <c r="R38" s="40"/>
       <c r="S38" s="41"/>
       <c r="T38" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" ht="135" customHeight="1" spans="1:20">
       <c r="A39" s="24">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>26</v>
@@ -3612,10 +3582,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="28"/>
@@ -3624,32 +3594,24 @@
       <c r="J39" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="O39" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" s="26" t="s">
+      <c r="K39" s="36" t="s">
         <v>93</v>
       </c>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="26"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="40"/>
       <c r="S39" s="41"/>
       <c r="T39" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" ht="135" customHeight="1" spans="1:20">
       <c r="A40" s="24">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>26</v>
@@ -3658,10 +3620,10 @@
         <v>50</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="28"/>
@@ -3671,7 +3633,7 @@
         <v>42</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
@@ -3682,12 +3644,12 @@
       <c r="R40" s="40"/>
       <c r="S40" s="41"/>
       <c r="T40" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" ht="135" customHeight="1" spans="1:20">
       <c r="A41" s="24">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>26</v>
@@ -3696,10 +3658,10 @@
         <v>50</v>
       </c>
       <c r="D41" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>129</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>130</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="28"/>
@@ -3709,7 +3671,7 @@
         <v>42</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
@@ -3720,12 +3682,12 @@
       <c r="R41" s="40"/>
       <c r="S41" s="41"/>
       <c r="T41" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" ht="135" customHeight="1" spans="1:20">
       <c r="A42" s="24">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>26</v>
@@ -3734,10 +3696,10 @@
         <v>50</v>
       </c>
       <c r="D42" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="28"/>
@@ -3747,7 +3709,7 @@
         <v>42</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
@@ -3758,12 +3720,12 @@
       <c r="R42" s="40"/>
       <c r="S42" s="41"/>
       <c r="T42" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" ht="135" customHeight="1" spans="1:20">
       <c r="A43" s="24">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>26</v>
@@ -3772,10 +3734,10 @@
         <v>50</v>
       </c>
       <c r="D43" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
@@ -3796,12 +3758,12 @@
       <c r="R43" s="40"/>
       <c r="S43" s="41"/>
       <c r="T43" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" ht="135" customHeight="1" spans="1:20">
       <c r="A44" s="24">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>26</v>
@@ -3810,36 +3772,54 @@
         <v>50</v>
       </c>
       <c r="D44" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="F44" s="27">
+        <v>45483</v>
+      </c>
+      <c r="G44" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="37" t="s">
+      <c r="H44" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="O44" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K44" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="26"/>
+      <c r="P44" s="26" t="s">
+        <v>141</v>
+      </c>
       <c r="Q44" s="36"/>
       <c r="R44" s="40"/>
-      <c r="S44" s="41"/>
+      <c r="S44" s="44" t="s">
+        <v>142</v>
+      </c>
       <c r="T44" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" ht="135" customHeight="1" spans="1:20">
       <c r="A45" s="24">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>26</v>
@@ -3848,10 +3828,10 @@
         <v>50</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="28"/>
@@ -3861,7 +3841,7 @@
         <v>42</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
@@ -3872,12 +3852,12 @@
       <c r="R45" s="40"/>
       <c r="S45" s="41"/>
       <c r="T45" s="43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" ht="135" customHeight="1" spans="1:20">
       <c r="A46" s="24">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B46" s="25" t="s">
         <v>26</v>
@@ -3886,54 +3866,36 @@
         <v>50</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="27">
-        <v>45483</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="N46" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="O46" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="P46" s="26" t="s">
-        <v>147</v>
-      </c>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="26"/>
       <c r="Q46" s="36"/>
       <c r="R46" s="40"/>
-      <c r="S46" s="44" t="s">
-        <v>148</v>
-      </c>
+      <c r="S46" s="41"/>
       <c r="T46" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" ht="135" customHeight="1" spans="1:20">
       <c r="A47" s="24">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>26</v>
@@ -3942,10 +3904,10 @@
         <v>50</v>
       </c>
       <c r="D47" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>150</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="28"/>
@@ -3955,7 +3917,7 @@
         <v>42</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
@@ -3966,12 +3928,12 @@
       <c r="R47" s="40"/>
       <c r="S47" s="41"/>
       <c r="T47" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" ht="135" customHeight="1" spans="1:20">
       <c r="A48" s="24">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>26</v>
@@ -3980,10 +3942,10 @@
         <v>50</v>
       </c>
       <c r="D48" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>151</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>152</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="28"/>
@@ -3993,7 +3955,7 @@
         <v>42</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
@@ -4004,12 +3966,12 @@
       <c r="R48" s="40"/>
       <c r="S48" s="41"/>
       <c r="T48" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" ht="135" customHeight="1" spans="1:20">
       <c r="A49" s="24">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>26</v>
@@ -4018,10 +3980,10 @@
         <v>50</v>
       </c>
       <c r="D49" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>154</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="28"/>
@@ -4031,7 +3993,7 @@
         <v>42</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
@@ -4042,12 +4004,12 @@
       <c r="R49" s="40"/>
       <c r="S49" s="41"/>
       <c r="T49" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" ht="135" customHeight="1" spans="1:20">
       <c r="A50" s="24">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="25" t="s">
         <v>26</v>
@@ -4056,10 +4018,10 @@
         <v>50</v>
       </c>
       <c r="D50" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
@@ -4069,7 +4031,7 @@
         <v>42</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
@@ -4080,12 +4042,12 @@
       <c r="R50" s="40"/>
       <c r="S50" s="41"/>
       <c r="T50" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" ht="135" customHeight="1" spans="1:20">
       <c r="A51" s="24">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="25" t="s">
         <v>26</v>
@@ -4094,10 +4056,10 @@
         <v>50</v>
       </c>
       <c r="D51" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="28"/>
@@ -4107,7 +4069,7 @@
         <v>42</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
@@ -4118,12 +4080,12 @@
       <c r="R51" s="40"/>
       <c r="S51" s="41"/>
       <c r="T51" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" ht="135" customHeight="1" spans="1:20">
       <c r="A52" s="24">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>26</v>
@@ -4145,7 +4107,7 @@
         <v>42</v>
       </c>
       <c r="K52" s="36" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
@@ -4156,24 +4118,24 @@
       <c r="R52" s="40"/>
       <c r="S52" s="41"/>
       <c r="T52" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" ht="135" hidden="1" customHeight="1" spans="1:20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" ht="135" customHeight="1" spans="1:20">
       <c r="A53" s="24">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>50</v>
+      <c r="C53" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="28"/>
@@ -4183,7 +4145,7 @@
         <v>42</v>
       </c>
       <c r="K53" s="36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
@@ -4193,36 +4155,42 @@
       <c r="Q53" s="36"/>
       <c r="R53" s="40"/>
       <c r="S53" s="41"/>
-      <c r="T53" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" ht="135" hidden="1" customHeight="1" spans="1:20">
+      <c r="T53" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" ht="135" customHeight="1" spans="1:20">
       <c r="A54" s="24">
-        <v>93</v>
+        <v>368</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>50</v>
+      <c r="C54" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K54" s="36" t="s">
         <v>166</v>
       </c>
+      <c r="F54" s="27">
+        <v>45495</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="26"/>
@@ -4231,13 +4199,13 @@
       <c r="Q54" s="36"/>
       <c r="R54" s="40"/>
       <c r="S54" s="41"/>
-      <c r="T54" s="43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" ht="135" hidden="1" customHeight="1" spans="1:20">
+      <c r="T54" s="42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" ht="135" customHeight="1" spans="1:20">
       <c r="A55" s="24">
-        <v>191</v>
+        <v>376</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>26</v>
@@ -4246,10 +4214,10 @@
         <v>27</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="28"/>
@@ -4259,7 +4227,7 @@
         <v>42</v>
       </c>
       <c r="K55" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
@@ -4273,131 +4241,59 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" ht="135" customHeight="1" spans="1:20">
-      <c r="A56" s="24">
-        <v>368</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="27">
-        <v>45495</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" ht="135" customHeight="1" spans="1:20">
-      <c r="A57" s="24">
-        <v>370</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="27">
-        <v>45483</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="41"/>
-      <c r="T57" s="42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" ht="135" hidden="1" customHeight="1" spans="1:20">
-      <c r="A58" s="24">
-        <v>376</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="36"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="36"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="41"/>
-      <c r="T58" s="42" t="s">
-        <v>34</v>
-      </c>
+    <row r="56" ht="14.25" customHeight="1" spans="5:20">
+      <c r="E56" s="31"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="34"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1" spans="5:20">
+      <c r="E57" s="31"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="34"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="34"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1" spans="5:20">
+      <c r="E58" s="31"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="34"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="5:20">
       <c r="E59" s="31"/>
@@ -7515,57 +7411,15 @@
     </row>
     <row r="232" ht="14.25" customHeight="1" spans="5:20">
       <c r="E232" s="31"/>
-      <c r="F232" s="9"/>
-      <c r="G232" s="9"/>
-      <c r="H232" s="9"/>
-      <c r="I232" s="32"/>
-      <c r="J232" s="33"/>
-      <c r="K232" s="34"/>
-      <c r="L232" s="33"/>
-      <c r="M232" s="33"/>
-      <c r="N232" s="34"/>
-      <c r="O232" s="33"/>
-      <c r="P232" s="34"/>
-      <c r="Q232" s="33"/>
-      <c r="R232" s="38"/>
-      <c r="S232" s="18"/>
-      <c r="T232" s="34"/>
+      <c r="T232" s="33"/>
     </row>
     <row r="233" ht="14.25" customHeight="1" spans="5:20">
       <c r="E233" s="31"/>
-      <c r="F233" s="9"/>
-      <c r="G233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="I233" s="32"/>
-      <c r="J233" s="33"/>
-      <c r="K233" s="34"/>
-      <c r="L233" s="33"/>
-      <c r="M233" s="33"/>
-      <c r="N233" s="34"/>
-      <c r="O233" s="33"/>
-      <c r="P233" s="34"/>
-      <c r="Q233" s="33"/>
-      <c r="R233" s="38"/>
-      <c r="S233" s="18"/>
-      <c r="T233" s="34"/>
+      <c r="T233" s="33"/>
     </row>
     <row r="234" ht="14.25" customHeight="1" spans="5:20">
       <c r="E234" s="31"/>
-      <c r="F234" s="9"/>
-      <c r="G234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="I234" s="32"/>
-      <c r="J234" s="33"/>
-      <c r="K234" s="34"/>
-      <c r="L234" s="33"/>
-      <c r="M234" s="33"/>
-      <c r="N234" s="34"/>
-      <c r="O234" s="33"/>
-      <c r="P234" s="34"/>
-      <c r="Q234" s="33"/>
-      <c r="R234" s="38"/>
-      <c r="S234" s="18"/>
-      <c r="T234" s="34"/>
+      <c r="T234" s="33"/>
     </row>
     <row r="235" ht="14.25" customHeight="1" spans="5:20">
       <c r="E235" s="31"/>
@@ -9223,26 +9077,9 @@
       <c r="E648" s="31"/>
       <c r="T648" s="33"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1" spans="5:20">
-      <c r="E649" s="31"/>
-      <c r="T649" s="33"/>
-    </row>
-    <row r="650" ht="14.25" customHeight="1" spans="5:20">
-      <c r="E650" s="31"/>
-      <c r="T650" s="33"/>
-    </row>
-    <row r="651" ht="14.25" customHeight="1" spans="5:20">
-      <c r="E651" s="31"/>
-      <c r="T651" s="33"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:T58">
-    <filterColumn colId="9">
-      <customFilters>
-        <customFilter operator="equal" val="SI"/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A9:T58">
+  <autoFilter ref="A9:T55">
+    <sortState ref="A9:T55">
       <sortCondition ref="D9"/>
     </sortState>
     <extLst/>
@@ -9257,10 +9094,10 @@
     <mergeCell ref="A3:B5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J19;L19:M19;O19;J20;L20:M20;O20;J21;L21:M21;O21;J22;L22:M22;O22;J23;L23:M23;O23;J24;L24:M24;O24;J55;L55:M55;O55;J56;L56:M56;O56;J57;L57:M57;O57;J58;L58:M58;O58;J10:J14;J15:J18;J25:J35;J36:J54;O10:O14;O15:O18;O25:O35;O36:O54;L15:M18;L25:M35;L10:M14;L36:M54">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J17;L17:M17;O17;J18;L18:M18;O18;J19;L19:M19;O19;J20;L20:M20;O20;J21;L21:M21;O21;J22;L22:M22;O22;J53;L53:M53;O53;J54;L54:M54;O54;J55;L55:M55;O55;J10:J14;J15:J16;J23:J33;J34:J52;O10:O14;O15:O16;O23:O33;O34:O52;L15:M16;L23:M33;L10:M14;L34:M52">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q19;Q20;Q21;Q22;Q23;Q24;Q55;Q56;Q57;Q58;Q10:Q14;Q15:Q18;Q25:Q35;Q36:Q54">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q17;Q18;Q19;Q20;Q21;Q22;Q53;Q54;Q55;Q10:Q14;Q15:Q16;Q23:Q33;Q34:Q52">
       <formula1>Sheet1!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -9276,10 +9113,10 @@
   <sheetPr/>
   <dimension ref="A1:D954"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
@@ -9299,10 +9136,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -9310,13 +9147,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
@@ -9324,27 +9161,27 @@
         <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1"/>
@@ -10330,7 +10167,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
@@ -10338,7 +10175,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>42</v>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -360,6 +360,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Precondizioni:</t>
     </r>
     <r>
@@ -413,6 +421,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Precondizioni:</t>
     </r>
     <r>
@@ -561,13 +577,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-07-22T10:51:52.4626409+02:00</t>
-  </si>
-  <si>
-    <t>fdc76425c6b1da14</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.52e740739e4ddc16c4226dbd7e244e9c82bf78461e7060fc27df7a0a56c40d81.df542b9420^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Sezione non prevista perché opzionale</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
@@ -667,23 +677,11 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-07-10T11:24:43.6635133+02:00</t>
-  </si>
-  <si>
-    <t>e2e9e434b4d2e357</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.b4765aaea0e9350420eae66ee9610011f4f678a1019e32fb46dc1a51a8650dd6.36c0b94af6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Sezione non prevista perché opzionale</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
@@ -2508,12 +2506,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{5BF23FD4-7444-4421-A56C-35CFD0ED30CB}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{B9ED529B-086A-4132-BF4B-FEE4B607747E}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{F578CBA5-FDC2-4924-BD82-B19DA27DCAA9}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{7B74987A-3A5D-4CA9-ADBA-AB0BD72C7A93}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -3898,11 +3896,11 @@
   <dimension ref="A1:W630"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -5076,23 +5074,19 @@
       <c r="E30" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="28">
-        <v>45495</v>
-      </c>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="H30" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
@@ -5118,10 +5112,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
@@ -5159,10 +5153,10 @@
         <v>73</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
@@ -5172,7 +5166,7 @@
         <v>63</v>
       </c>
       <c r="K32" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L32" s="50"/>
       <c r="M32" s="49"/>
@@ -5200,10 +5194,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
@@ -5243,10 +5237,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
@@ -5256,7 +5250,7 @@
         <v>63</v>
       </c>
       <c r="K34" s="50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L34" s="50"/>
       <c r="M34" s="49"/>
@@ -5284,10 +5278,10 @@
         <v>73</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
@@ -5327,10 +5321,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
@@ -5368,10 +5362,10 @@
         <v>73</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
@@ -5381,7 +5375,7 @@
         <v>63</v>
       </c>
       <c r="K37" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L37" s="50"/>
       <c r="M37" s="49"/>
@@ -5409,10 +5403,10 @@
         <v>73</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="31"/>
@@ -5425,7 +5419,7 @@
         <v>84</v>
       </c>
       <c r="L38" s="50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
@@ -5452,10 +5446,10 @@
         <v>73</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31"/>
@@ -5465,7 +5459,7 @@
         <v>63</v>
       </c>
       <c r="K39" s="50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L39" s="50"/>
       <c r="M39" s="49"/>
@@ -5493,10 +5487,10 @@
         <v>73</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
@@ -5509,7 +5503,7 @@
         <v>84</v>
       </c>
       <c r="L40" s="50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M40" s="49"/>
       <c r="N40" s="49"/>
@@ -5525,7 +5519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" ht="45.75" spans="1:23">
+    <row r="41" ht="42" spans="1:23">
       <c r="A41" s="25">
         <v>84</v>
       </c>
@@ -5536,10 +5530,10 @@
         <v>73</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
@@ -5551,9 +5545,7 @@
       <c r="K41" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="L41" s="50" t="s">
-        <v>106</v>
-      </c>
+      <c r="L41" s="50"/>
       <c r="M41" s="49"/>
       <c r="N41" s="49"/>
       <c r="O41" s="49"/>
@@ -5579,28 +5571,24 @@
         <v>73</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42" s="28">
-        <v>45483</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H42" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="J42" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
+        <v>137</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="50" t="s">
+        <v>109</v>
+      </c>
       <c r="M42" s="49"/>
       <c r="N42" s="49"/>
       <c r="O42" s="49"/>
@@ -5626,10 +5614,10 @@
         <v>73</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="31"/>
@@ -5642,7 +5630,7 @@
         <v>84</v>
       </c>
       <c r="L43" s="50" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M43" s="49"/>
       <c r="N43" s="49"/>
@@ -5669,10 +5657,10 @@
         <v>73</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
@@ -5685,7 +5673,7 @@
         <v>84</v>
       </c>
       <c r="L44" s="50" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M44" s="49"/>
       <c r="N44" s="49"/>
@@ -5712,10 +5700,10 @@
         <v>73</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="31"/>
@@ -5728,7 +5716,7 @@
         <v>84</v>
       </c>
       <c r="L45" s="50" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M45" s="49"/>
       <c r="N45" s="49"/>
@@ -5755,10 +5743,10 @@
         <v>73</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="31"/>
@@ -5771,7 +5759,7 @@
         <v>84</v>
       </c>
       <c r="L46" s="50" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M46" s="49"/>
       <c r="N46" s="49"/>
@@ -5798,10 +5786,10 @@
         <v>73</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="31"/>
@@ -5814,7 +5802,7 @@
         <v>84</v>
       </c>
       <c r="L47" s="50" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M47" s="49"/>
       <c r="N47" s="49"/>
@@ -5841,10 +5829,10 @@
         <v>73</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
@@ -5857,7 +5845,7 @@
         <v>84</v>
       </c>
       <c r="L48" s="50" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M48" s="49"/>
       <c r="N48" s="49"/>
@@ -5884,10 +5872,10 @@
         <v>73</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="31"/>
@@ -5925,10 +5913,10 @@
         <v>73</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
@@ -5941,7 +5929,7 @@
         <v>84</v>
       </c>
       <c r="L50" s="50" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
@@ -5968,10 +5956,10 @@
         <v>48</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="31"/>
@@ -5984,7 +5972,7 @@
         <v>84</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M51" s="49"/>
       <c r="N51" s="49"/>
@@ -6011,22 +5999,22 @@
         <v>48</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F52" s="28">
         <v>45495</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J52" s="48" t="s">
         <v>54</v>
@@ -6058,10 +6046,10 @@
         <v>48</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="38"/>
@@ -6074,7 +6062,7 @@
         <v>84</v>
       </c>
       <c r="L53" s="51" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
@@ -6101,22 +6089,22 @@
         <v>73</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F54" s="28">
         <v>45483</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J54" s="53" t="s">
         <v>54</v>
@@ -6148,22 +6136,22 @@
         <v>73</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F55" s="28">
         <v>45483</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H55" s="29" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J55" s="54" t="s">
         <v>54</v>
@@ -10597,7 +10585,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:W55">
-    <sortState ref="A10:W55">
+    <sortState ref="A9:W55">
       <sortCondition ref="A9"/>
     </sortState>
     <extLst/>
@@ -10642,7 +10630,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10662,12 +10650,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -10710,22 +10698,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
@@ -10733,27 +10721,27 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
@@ -10761,111 +10749,111 @@
         <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C4" s="8">
         <v>446.447</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -11853,7 +11841,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -11861,7 +11849,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="209">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -796,13 +796,7 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-07-10T11:14:41.8060329+02:00</t>
-  </si>
-  <si>
-    <t>25c7eaf9bdaba647</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.ed4cbfadb8d67457e2f7beb7b34077300ae6a474e1dade7ad6eb57a9ec44e968.92552bc5c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Sezioni non previste perché opzionali</t>
   </si>
   <si>
     <t>Razionale di Applicabilità</t>
@@ -2325,7 +2319,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,12 +2500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{B9ED529B-086A-4132-BF4B-FEE4B607747E}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{78881865-1A76-4B43-9EB1-8976FA7D4E65}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{7B74987A-3A5D-4CA9-ADBA-AB0BD72C7A93}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{CD222A37-AA01-41B8-9395-7E2058BFD7AC}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -3900,7 +3894,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -6141,23 +6135,19 @@
       <c r="E55" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="28">
-        <v>45483</v>
-      </c>
-      <c r="G55" s="29" t="s">
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="L55" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I55" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="J55" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
       <c r="M55" s="55"/>
       <c r="N55" s="55"/>
       <c r="O55" s="55"/>
@@ -10630,7 +10620,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10698,22 +10688,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
@@ -10721,27 +10711,27 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
@@ -10749,111 +10739,111 @@
         <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C4" s="8">
         <v>446.447</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -11841,7 +11831,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -11849,7 +11839,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>63</v>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -780,13 +780,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-07-10T11:09:42.8829628+02:00</t>
-  </si>
-  <si>
-    <t>4022662c3e5cb238</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.d7eefc7b8a503d0a01e7fee30565a19e23bb25a16cb91c59b98a1691ee0cebae.64e7acb3b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-08-05T16:00:02.5612529+02:00</t>
+  </si>
+  <si>
+    <t>2a5f5a35af310796</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.d7eefc7b8a503d0a01e7fee30565a19e23bb25a16cb91c59b98a1691ee0cebae.05fffd6c2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
@@ -1161,15 +1161,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2500,12 +2500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{78881865-1A76-4B43-9EB1-8976FA7D4E65}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{B8A871DD-197E-4F09-8B6F-B560CC86408C}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{CD222A37-AA01-41B8-9395-7E2058BFD7AC}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{824D28E0-1494-422C-9A8F-89136AA38A6A}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -3894,7 +3894,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -6089,7 +6089,7 @@
         <v>166</v>
       </c>
       <c r="F54" s="28">
-        <v>45483</v>
+        <v>45509</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>167</v>
@@ -10574,7 +10574,7 @@
       <c r="W630" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W55">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A9:W55" etc:filterBottomFollowUsedRange="0">
     <sortState ref="A9:W55">
       <sortCondition ref="A9"/>
     </sortState>
@@ -10590,13 +10590,13 @@
     <mergeCell ref="A3:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J15;M15:N15;P15:R15;J16;M16:N16;P16:R16;J17;M17:N17;P17:R17;J18;M18:N18;P18:R18;J19;M19:N19;P19:R19;J20;M20:N20;P20:R20;J53;M53:N53;P53:R53;J10:J14;J21:J31;J32:J50;J51:J52;J54:J55;M10:N14;P10:R14;P21:R31;P32:R50;P51:R52;P54:R55;M21:N31;M32:N50;M51:N52;M54:N55">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:J55;M10:N55;P10:R55">
       <formula1>Sheet1!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15;K16;K17;K18;K19;K20;K53;K10:K14;K21:K31;K32:K50;K51:K52;K54:K55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K55">
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T15;T16;T17;T18;T19;T20;T53;T10:T14;T21:T31;T32:T50;T51:T52;T54:T55">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T10:T55">
       <formula1>Sheet1!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -11796,7 +11796,7 @@
     <row r="959" ht="15.75" customHeight="1"/>
     <row r="960" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G11">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G11" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13980" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -780,13 +780,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-08-05T16:00:02.5612529+02:00</t>
-  </si>
-  <si>
-    <t>2a5f5a35af310796</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.d7eefc7b8a503d0a01e7fee30565a19e23bb25a16cb91c59b98a1691ee0cebae.05fffd6c2d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-08-06T18:20:59.117547+02:00</t>
+  </si>
+  <si>
+    <t>8618e763049b13f2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.d7eefc7b8a503d0a01e7fee30565a19e23bb25a16cb91c59b98a1691ee0cebae.bf0e673968^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
@@ -1161,15 +1161,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2500,12 +2500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{B8A871DD-197E-4F09-8B6F-B560CC86408C}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{134AF131-5099-4D55-A38E-114FBEC90476}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{824D28E0-1494-422C-9A8F-89136AA38A6A}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{D988CE77-E441-4498-BDC6-921D14945C58}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -3894,7 +3894,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -6089,7 +6089,7 @@
         <v>166</v>
       </c>
       <c r="F54" s="28">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="G54" s="29" t="s">
         <v>167</v>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="209">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -476,9 +476,12 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>Viene registrata l'anomalia ma.. l'operazione prosegue e il documento CDA viene allegato comunque.
-Per questi referti, sarà ripetuta la validazione prima dell'invio. 
-Pubblichiamo referti dal 2018 e con FSE2.0 non è previsto un controllo forte sui codifci degli esami (a differenza di FSE1.0 sussidiarità, ad esempio)</t>
+    <t>Gli errori determinati da chiamata in eccezione o restituzione dei codici HTTP 429/503/504 sono trasparenti al firmatario. Il documento CDA viene allegato al referto e quest'ultimo firmato digitalmente (nei metadati, registro la presenza del CDA e l'assenza del workflowInstanceId). A seguire, all'atto della pubblicazione, il programma eseguirà prima la validazione del documento.
+L'errore derivante dall'eventuale  mancata validazione sarà registrato e visibile all'inviante, quindi risolvibile dallo stesso o dall'assistenza tecnica.
+ps. Sul canale Slack mi confermano come sia possibile validare un referto già firmato (al netto di un warning)</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>VALIDAZIONE_RAD_TIMEOUT</t>
@@ -899,9 +902,6 @@
   </si>
   <si>
     <t>423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -2500,12 +2500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{134AF131-5099-4D55-A38E-114FBEC90476}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{FB62CE47-D0BD-455B-996B-DB6ED1D8FD75}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{D988CE77-E441-4498-BDC6-921D14945C58}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{D9F0BA10-DC51-4917-81A8-DF0FF866FEA9}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -3894,7 +3894,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -3912,7 +3912,7 @@
     <col min="13" max="14" width="36.4571428571429" customWidth="1"/>
     <col min="15" max="15" width="86.4857142857143" customWidth="1"/>
     <col min="16" max="18" width="36.4571428571429" customWidth="1"/>
-    <col min="19" max="19" width="149.609523809524" customWidth="1"/>
+    <col min="19" max="19" width="167.780952380952" customWidth="1"/>
     <col min="20" max="20" width="33.1809523809524" customWidth="1"/>
     <col min="21" max="21" width="36.4571428571429" customWidth="1"/>
     <col min="22" max="22" width="34" customWidth="1"/>
@@ -4567,7 +4567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="45.75" spans="1:23">
+    <row r="19" ht="90.75" spans="1:23">
       <c r="A19" s="25">
         <v>44</v>
       </c>
@@ -4611,7 +4611,9 @@
       <c r="S19" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="T19" s="49"/>
+      <c r="T19" s="49" t="s">
+        <v>81</v>
+      </c>
       <c r="U19" s="61" t="s">
         <v>54</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" ht="45.75" spans="1:23">
+    <row r="20" ht="90.75" spans="1:23">
       <c r="A20" s="25">
         <v>47</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>79</v>
@@ -4664,7 +4666,9 @@
       <c r="S20" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="T20" s="49"/>
+      <c r="T20" s="49" t="s">
+        <v>81</v>
+      </c>
       <c r="U20" s="61" t="s">
         <v>54</v>
       </c>
@@ -4684,10 +4688,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
@@ -4697,10 +4701,10 @@
         <v>63</v>
       </c>
       <c r="K21" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="49"/>
       <c r="N21" s="49"/>
@@ -4727,10 +4731,10 @@
         <v>48</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
@@ -4740,10 +4744,10 @@
         <v>63</v>
       </c>
       <c r="K22" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L22" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M22" s="49"/>
       <c r="N22" s="49"/>
@@ -4770,10 +4774,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -4783,10 +4787,10 @@
         <v>63</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L23" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
@@ -4813,10 +4817,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
@@ -4826,10 +4830,10 @@
         <v>63</v>
       </c>
       <c r="K24" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M24" s="49"/>
       <c r="N24" s="49"/>
@@ -4856,10 +4860,10 @@
         <v>48</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
@@ -4869,7 +4873,7 @@
         <v>63</v>
       </c>
       <c r="K25" s="50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L25" s="50"/>
       <c r="M25" s="49"/>
@@ -4897,10 +4901,10 @@
         <v>48</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
@@ -4910,7 +4914,7 @@
         <v>63</v>
       </c>
       <c r="K26" s="50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" s="50"/>
       <c r="M26" s="49"/>
@@ -4938,10 +4942,10 @@
         <v>48</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
@@ -4979,10 +4983,10 @@
         <v>48</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
@@ -4992,7 +4996,7 @@
         <v>63</v>
       </c>
       <c r="K28" s="50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L28" s="50"/>
       <c r="M28" s="49"/>
@@ -5020,10 +5024,10 @@
         <v>48</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="31"/>
@@ -5033,10 +5037,10 @@
         <v>63</v>
       </c>
       <c r="K29" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L29" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M29" s="49"/>
       <c r="N29" s="49"/>
@@ -5063,10 +5067,10 @@
         <v>48</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
@@ -5076,10 +5080,10 @@
         <v>63</v>
       </c>
       <c r="K30" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
@@ -5106,10 +5110,10 @@
         <v>48</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="31"/>
@@ -5147,10 +5151,10 @@
         <v>73</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="31"/>
@@ -5160,7 +5164,7 @@
         <v>63</v>
       </c>
       <c r="K32" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L32" s="50"/>
       <c r="M32" s="49"/>
@@ -5188,10 +5192,10 @@
         <v>73</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="31"/>
@@ -5201,10 +5205,10 @@
         <v>63</v>
       </c>
       <c r="K33" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L33" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
@@ -5231,10 +5235,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="31"/>
@@ -5244,7 +5248,7 @@
         <v>63</v>
       </c>
       <c r="K34" s="50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L34" s="50"/>
       <c r="M34" s="49"/>
@@ -5272,10 +5276,10 @@
         <v>73</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="31"/>
@@ -5285,10 +5289,10 @@
         <v>63</v>
       </c>
       <c r="K35" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L35" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M35" s="49"/>
       <c r="N35" s="49"/>
@@ -5315,10 +5319,10 @@
         <v>73</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="31"/>
@@ -5328,7 +5332,7 @@
         <v>63</v>
       </c>
       <c r="K36" s="50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L36" s="50"/>
       <c r="M36" s="49"/>
@@ -5356,10 +5360,10 @@
         <v>73</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="31"/>
@@ -5369,7 +5373,7 @@
         <v>63</v>
       </c>
       <c r="K37" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L37" s="50"/>
       <c r="M37" s="49"/>
@@ -5397,10 +5401,10 @@
         <v>73</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="31"/>
@@ -5410,10 +5414,10 @@
         <v>63</v>
       </c>
       <c r="K38" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L38" s="50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M38" s="49"/>
       <c r="N38" s="49"/>
@@ -5440,10 +5444,10 @@
         <v>73</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="31"/>
@@ -5453,7 +5457,7 @@
         <v>63</v>
       </c>
       <c r="K39" s="50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L39" s="50"/>
       <c r="M39" s="49"/>
@@ -5481,10 +5485,10 @@
         <v>73</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="31"/>
@@ -5494,10 +5498,10 @@
         <v>63</v>
       </c>
       <c r="K40" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L40" s="50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M40" s="49"/>
       <c r="N40" s="49"/>
@@ -5524,10 +5528,10 @@
         <v>73</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="31"/>
@@ -5565,10 +5569,10 @@
         <v>73</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
@@ -5578,10 +5582,10 @@
         <v>63</v>
       </c>
       <c r="K42" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L42" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M42" s="49"/>
       <c r="N42" s="49"/>
@@ -5608,10 +5612,10 @@
         <v>73</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="31"/>
@@ -5621,10 +5625,10 @@
         <v>63</v>
       </c>
       <c r="K43" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L43" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M43" s="49"/>
       <c r="N43" s="49"/>
@@ -5651,10 +5655,10 @@
         <v>73</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
@@ -5664,10 +5668,10 @@
         <v>63</v>
       </c>
       <c r="K44" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L44" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M44" s="49"/>
       <c r="N44" s="49"/>
@@ -5694,10 +5698,10 @@
         <v>73</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="31"/>
@@ -5707,10 +5711,10 @@
         <v>63</v>
       </c>
       <c r="K45" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L45" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M45" s="49"/>
       <c r="N45" s="49"/>
@@ -5737,10 +5741,10 @@
         <v>73</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="31"/>
@@ -5750,10 +5754,10 @@
         <v>63</v>
       </c>
       <c r="K46" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L46" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M46" s="49"/>
       <c r="N46" s="49"/>
@@ -5780,10 +5784,10 @@
         <v>73</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="31"/>
@@ -5793,10 +5797,10 @@
         <v>63</v>
       </c>
       <c r="K47" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L47" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M47" s="49"/>
       <c r="N47" s="49"/>
@@ -5823,10 +5827,10 @@
         <v>73</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
@@ -5836,10 +5840,10 @@
         <v>63</v>
       </c>
       <c r="K48" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L48" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M48" s="49"/>
       <c r="N48" s="49"/>
@@ -5866,10 +5870,10 @@
         <v>73</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="31"/>
@@ -5907,10 +5911,10 @@
         <v>73</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="31"/>
@@ -5920,10 +5924,10 @@
         <v>63</v>
       </c>
       <c r="K50" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L50" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M50" s="49"/>
       <c r="N50" s="49"/>
@@ -5950,10 +5954,10 @@
         <v>48</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="31"/>
@@ -5963,10 +5967,10 @@
         <v>63</v>
       </c>
       <c r="K51" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L51" s="50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M51" s="49"/>
       <c r="N51" s="49"/>
@@ -5993,22 +5997,22 @@
         <v>48</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F52" s="28">
         <v>45495</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I52" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J52" s="48" t="s">
         <v>54</v>
@@ -6040,10 +6044,10 @@
         <v>48</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="38"/>
@@ -6053,10 +6057,10 @@
         <v>63</v>
       </c>
       <c r="K53" s="51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L53" s="51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
@@ -6083,22 +6087,22 @@
         <v>73</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F54" s="28">
         <v>45510</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I54" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J54" s="53" t="s">
         <v>54</v>
@@ -6130,10 +6134,10 @@
         <v>73</v>
       </c>
       <c r="D55" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="29"/>
@@ -6143,10 +6147,10 @@
         <v>63</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L55" s="54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M55" s="55"/>
       <c r="N55" s="55"/>
@@ -10620,7 +10624,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10630,7 +10634,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -10640,22 +10644,22 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -10688,22 +10692,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
@@ -10711,27 +10715,27 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
@@ -10739,111 +10743,111 @@
         <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" s="8">
         <v>446.447</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -11831,7 +11835,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -1161,15 +1161,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2500,12 +2500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{FB62CE47-D0BD-455B-996B-DB6ED1D8FD75}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{A9EBC851-D192-4512-B380-D483B3526EB2}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{D9F0BA10-DC51-4917-81A8-DF0FF866FEA9}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{597BB2F4-C4D3-4C22-93F4-F3A50A973B4D}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -3894,7 +3894,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="265">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -849,6 +849,10 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>E' sempre presente il tag infulfilldocument (id evento).
+A seguire, troviamo i codici a barre delle ricette, ove disponibili.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
   </si>
   <si>
@@ -1111,7 +1115,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,13 +1128,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1186,12 +1183,6 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2278,152 +2269,152 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2433,74 +2424,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2512,117 +2503,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2641,8 +2632,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2750,12 +2741,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{85BC98D4-37D3-4D0E-9F72-50994F914798}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{FD5C97DD-631D-439B-998C-524EF0F97C96}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{6D90FF06-D955-4F3C-B962-94AED6686E1D}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{BCDA6467-193A-4E7D-AD17-9FBD5DA332A4}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -4144,7 +4135,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -5926,7 +5917,7 @@
         <v>62</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="L44" s="37" t="s">
         <v>113</v>
@@ -6859,8 +6850,12 @@
       <c r="J66" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
+      <c r="K66" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" s="37" t="s">
+        <v>187</v>
+      </c>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
       <c r="O66" s="36"/>
@@ -6886,10 +6881,10 @@
         <v>74</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
@@ -6898,7 +6893,9 @@
       <c r="J67" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K67" s="37"/>
+      <c r="K67" s="37" t="s">
+        <v>107</v>
+      </c>
       <c r="L67" s="37"/>
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
@@ -6925,10 +6922,10 @@
         <v>74</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
@@ -6937,7 +6934,9 @@
       <c r="J68" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K68" s="37"/>
+      <c r="K68" s="37" t="s">
+        <v>107</v>
+      </c>
       <c r="L68" s="37"/>
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
@@ -6964,10 +6963,10 @@
         <v>74</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
@@ -6976,8 +6975,12 @@
       <c r="J69" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
+      <c r="K69" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
       <c r="O69" s="36"/>
@@ -7003,10 +7006,10 @@
         <v>74</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="30"/>
@@ -7015,7 +7018,9 @@
       <c r="J70" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K70" s="37"/>
+      <c r="K70" s="37" t="s">
+        <v>107</v>
+      </c>
       <c r="L70" s="37"/>
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
@@ -7042,10 +7047,10 @@
         <v>74</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
@@ -7054,8 +7059,12 @@
       <c r="J71" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
+      <c r="K71" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L71" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
       <c r="O71" s="36"/>
@@ -7081,10 +7090,10 @@
         <v>74</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="30"/>
@@ -7093,8 +7102,12 @@
       <c r="J72" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
+      <c r="K72" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L72" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
       <c r="O72" s="36"/>
@@ -7120,10 +7133,10 @@
         <v>74</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="30"/>
@@ -7132,8 +7145,12 @@
       <c r="J73" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
+      <c r="K73" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L73" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
       <c r="O73" s="36"/>
@@ -7159,10 +7176,10 @@
         <v>74</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="30"/>
@@ -7171,8 +7188,12 @@
       <c r="J74" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
+      <c r="K74" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L74" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
       <c r="O74" s="36"/>
@@ -7198,10 +7219,10 @@
         <v>74</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="30"/>
@@ -7210,8 +7231,12 @@
       <c r="J75" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
+      <c r="K75" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
       <c r="O75" s="36"/>
@@ -7237,10 +7262,10 @@
         <v>74</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="30"/>
@@ -7280,10 +7305,10 @@
         <v>48</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="30"/>
@@ -7296,7 +7321,7 @@
         <v>88</v>
       </c>
       <c r="L77" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
@@ -7323,22 +7348,22 @@
         <v>48</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F78" s="29">
         <v>45495</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J78" s="35" t="s">
         <v>54</v>
@@ -7370,22 +7395,22 @@
         <v>74</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F79" s="29">
         <v>45569</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J79" s="35" t="s">
         <v>54</v>
@@ -7417,10 +7442,10 @@
         <v>48</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="55"/>
@@ -7433,7 +7458,7 @@
         <v>88</v>
       </c>
       <c r="L80" s="65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M80" s="66"/>
       <c r="N80" s="66"/>
@@ -7460,22 +7485,22 @@
         <v>72</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E81" s="53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F81" s="29">
         <v>45510</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J81" s="67" t="s">
         <v>54</v>
@@ -7507,10 +7532,10 @@
         <v>72</v>
       </c>
       <c r="D82" s="60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E82" s="62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F82" s="63"/>
       <c r="G82" s="64"/>
@@ -7523,7 +7548,7 @@
         <v>88</v>
       </c>
       <c r="L82" s="68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M82" s="69"/>
       <c r="N82" s="69"/>
@@ -17445,14 +17470,14 @@
     <mergeCell ref="A3:B5"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15;K16;K18;K19;K21;K10:K14;K22:K23;K24:K34;K35:K53;K54:K76;K77:K78;K79:K80;K81:K82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K16;K18:K19;K21:K82">
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M15:N15;P15:R15;M16:N16;P16:R16;M18:N18;P18:R18;M19:N19;P19:R19;M21:N21;P21:R21;M10:N14;P10:R14;M22:N23;M24:N34;M35:N53;M54:N76;M77:N78;M79:N80;M81:N82;P22:R23;P24:R34;P35:R53;P54:R76;P77:R78;P79:R80;P81:R82">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T10:T16;T18:T19;T21:T82">
+      <formula1>Sheet1!$A$2:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M10:N16;M18:N19;M21:N82;P10:R16;P18:R19;P21:R82">
       <formula1>Sheet1!$B$2:$B$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T15;T16;T18;T19;T21;T10:T14;T22:T23;T24:T34;T35:T53;T54:T76;T77:T78;T79:T80;T81:T82">
-      <formula1>Sheet1!$A$2:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17475,7 +17500,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -17543,22 +17568,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
@@ -17566,27 +17591,27 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
@@ -17594,55 +17619,55 @@
         <v>72</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C4" s="8">
         <v>446.447</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -17650,55 +17675,55 @@
         <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -18694,7 +18719,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/INTELLILAB/3/report-checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13980" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="266">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -294,13 +294,13 @@
 </t>
   </si>
   <si>
-    <t>2024-07-22T10:51:50.2519027+02:00</t>
-  </si>
-  <si>
-    <t>f2d2f734e9179085</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.66a35ccbe4ac9a4420b1ac3011fd13b5b8acf2d87a4d4f74c772acf0c5581493.4d3a4474b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-10-11T15:06:56.8449741+02:00</t>
+  </si>
+  <si>
+    <t>230bea89ea8c33b6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.66a35ccbe4ac9a4420b1ac3011fd13b5b8acf2d87a4d4f74c772acf0c5581493.136982ffb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -317,10 +317,13 @@
 </t>
   </si>
   <si>
-    <t>2024-07-22T10:51:51.3493066+02:00</t>
-  </si>
-  <si>
-    <t>dc9c8204272674c4</t>
+    <t>2024-10-11T15:11:46.9643045+02:00</t>
+  </si>
+  <si>
+    <t>b507da59fb6aa7ee</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.a4fd527ca7c37e164b7d10be1c0e5e2fcb984f85c2b9c691e6ba933264b9fa2f.5e74ad8a34^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT3</t>
@@ -942,13 +945,13 @@
 </t>
   </si>
   <si>
-    <t>2024-07-22T10:51:48.9726791+02:00</t>
-  </si>
-  <si>
-    <t>70991a895474d73e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.9696a2b8e1e5cc003b23fe2f6e2144daa3cff2f48e7d28b3f5f657281a3098de.85976e525f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-10-11T15:06:58.6602623+02:00</t>
+  </si>
+  <si>
+    <t>a693838dedd996e0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.9696a2b8e1e5cc003b23fe2f6e2144daa3cff2f48e7d28b3f5f657281a3098de.c80ce86377^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT0</t>
@@ -983,13 +986,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2024-08-06T18:20:59.117547+02:00</t>
-  </si>
-  <si>
-    <t>91f76a7d487cc800</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.e0632972feccf59fb3abd7d8b0cc6c4af27a072b3877c3eb8be9a35b0bed9658.3cec1923a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-10-11T15:18:46.6119782+02:00</t>
+  </si>
+  <si>
+    <t>750c404ca4f00f0e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.d7eefc7b8a503d0a01e7fee30565a19e23bb25a16cb91c59b98a1691ee0cebae.110fefe4f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT2</t>
@@ -1352,16 +1355,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2741,12 +2744,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{FD5C97DD-631D-439B-998C-524EF0F97C96}">
+    <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{07CC611F-EE7B-4943-9428-67F349F9A62C}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{BCDA6467-193A-4E7D-AD17-9FBD5DA332A4}">
+    <tableStyle name="Sheet1-style 2" pivot="0" count="3" xr9:uid="{152B97DB-1B6E-4020-8552-BC01B75C31C9}">
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
@@ -4135,7 +4138,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
@@ -4442,7 +4445,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="29">
-        <v>45495</v>
+        <v>45576</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>51</v>
@@ -4489,7 +4492,7 @@
         <v>57</v>
       </c>
       <c r="F11" s="29">
-        <v>45495</v>
+        <v>45576</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>58</v>
@@ -4498,7 +4501,7 @@
         <v>59</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J11" s="35" t="s">
         <v>54</v>
@@ -4530,20 +4533,20 @@
         <v>48</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="36"/>
@@ -4571,20 +4574,20 @@
         <v>48</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="36"/>
@@ -4612,20 +4615,20 @@
         <v>48</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="36"/>
@@ -4653,20 +4656,20 @@
         <v>48</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" s="37"/>
       <c r="M15" s="36"/>
@@ -4680,7 +4683,7 @@
       <c r="U15" s="43"/>
       <c r="V15" s="44"/>
       <c r="W15" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" ht="180.75" spans="1:23">
@@ -4691,23 +4694,23 @@
         <v>47</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="36"/>
@@ -4721,7 +4724,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="44"/>
       <c r="W16" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="180.75" spans="1:23">
@@ -4732,23 +4735,23 @@
         <v>47</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
       <c r="J17" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
@@ -4762,7 +4765,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="44"/>
       <c r="W17" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="180.75" spans="1:23">
@@ -4776,20 +4779,20 @@
         <v>48</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
       <c r="J18" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
@@ -4803,7 +4806,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="44"/>
       <c r="W18" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" ht="180.75" spans="1:23">
@@ -4814,23 +4817,23 @@
         <v>47</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>77</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
       <c r="J19" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="36"/>
@@ -4844,7 +4847,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="44"/>
       <c r="W19" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="180.75" spans="1:23">
@@ -4855,23 +4858,23 @@
         <v>47</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="36"/>
@@ -4885,7 +4888,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="44"/>
       <c r="W20" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="105.75" spans="1:23">
@@ -4899,10 +4902,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
@@ -4914,33 +4917,33 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N21" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="36"/>
       <c r="P21" s="36" t="s">
         <v>54</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T21" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U21" s="48" t="s">
         <v>54</v>
       </c>
       <c r="V21" s="44"/>
       <c r="W21" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="105.75" spans="1:23">
@@ -4951,13 +4954,13 @@
         <v>47</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
@@ -4969,33 +4972,33 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
       <c r="M22" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O22" s="36"/>
       <c r="P22" s="36" t="s">
         <v>54</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R22" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S22" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T22" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U22" s="48" t="s">
         <v>54</v>
       </c>
       <c r="V22" s="44"/>
       <c r="W22" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="105.75" spans="1:23">
@@ -5006,13 +5009,13 @@
         <v>47</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
@@ -5024,33 +5027,33 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N23" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O23" s="36"/>
       <c r="P23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R23" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T23" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U23" s="48" t="s">
         <v>54</v>
       </c>
       <c r="V23" s="44"/>
       <c r="W23" s="49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="50.25" spans="1:23">
@@ -5064,23 +5067,23 @@
         <v>48</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
@@ -5093,7 +5096,7 @@
       <c r="U24" s="43"/>
       <c r="V24" s="44"/>
       <c r="W24" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="50.25" spans="1:23">
@@ -5107,23 +5110,23 @@
         <v>48</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
@@ -5136,7 +5139,7 @@
       <c r="U25" s="43"/>
       <c r="V25" s="44"/>
       <c r="W25" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="50.25" spans="1:23">
@@ -5150,23 +5153,23 @@
         <v>48</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
@@ -5179,7 +5182,7 @@
       <c r="U26" s="43"/>
       <c r="V26" s="44"/>
       <c r="W26" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" ht="50.25" spans="1:23">
@@ -5193,23 +5196,23 @@
         <v>48</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K27" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
@@ -5222,7 +5225,7 @@
       <c r="U27" s="43"/>
       <c r="V27" s="44"/>
       <c r="W27" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="50.25" spans="1:23">
@@ -5236,20 +5239,20 @@
         <v>48</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="36"/>
@@ -5263,7 +5266,7 @@
       <c r="U28" s="43"/>
       <c r="V28" s="44"/>
       <c r="W28" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" ht="50.25" spans="1:23">
@@ -5277,20 +5280,20 @@
         <v>48</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K29" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L29" s="37"/>
       <c r="M29" s="36"/>
@@ -5304,7 +5307,7 @@
       <c r="U29" s="43"/>
       <c r="V29" s="44"/>
       <c r="W29" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="50.25" spans="1:23">
@@ -5318,20 +5321,20 @@
         <v>48</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L30" s="37"/>
       <c r="M30" s="36"/>
@@ -5345,7 +5348,7 @@
       <c r="U30" s="43"/>
       <c r="V30" s="44"/>
       <c r="W30" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="50.25" spans="1:23">
@@ -5359,20 +5362,20 @@
         <v>48</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L31" s="37"/>
       <c r="M31" s="36"/>
@@ -5386,7 +5389,7 @@
       <c r="U31" s="43"/>
       <c r="V31" s="44"/>
       <c r="W31" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" ht="60.75" spans="1:23">
@@ -5400,23 +5403,23 @@
         <v>48</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -5429,7 +5432,7 @@
       <c r="U32" s="43"/>
       <c r="V32" s="44"/>
       <c r="W32" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" ht="50.25" spans="1:23">
@@ -5443,23 +5446,23 @@
         <v>48</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K33" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
@@ -5472,7 +5475,7 @@
       <c r="U33" s="43"/>
       <c r="V33" s="44"/>
       <c r="W33" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" ht="50.25" spans="1:23">
@@ -5486,20 +5489,20 @@
         <v>48</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34" s="37"/>
       <c r="M34" s="36"/>
@@ -5513,7 +5516,7 @@
       <c r="U34" s="43"/>
       <c r="V34" s="44"/>
       <c r="W34" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" ht="50.25" spans="1:23">
@@ -5524,23 +5527,23 @@
         <v>47</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K35" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L35" s="37"/>
       <c r="M35" s="36"/>
@@ -5554,7 +5557,7 @@
       <c r="U35" s="43"/>
       <c r="V35" s="44"/>
       <c r="W35" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" ht="42" spans="1:23">
@@ -5565,26 +5568,26 @@
         <v>47</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
       <c r="J36" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
@@ -5597,7 +5600,7 @@
       <c r="U36" s="43"/>
       <c r="V36" s="44"/>
       <c r="W36" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" ht="42" spans="1:23">
@@ -5608,23 +5611,23 @@
         <v>47</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
       <c r="J37" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K37" s="37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="36"/>
@@ -5638,7 +5641,7 @@
       <c r="U37" s="43"/>
       <c r="V37" s="44"/>
       <c r="W37" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" ht="42" spans="1:23">
@@ -5649,26 +5652,26 @@
         <v>47</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
       <c r="J38" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
@@ -5681,7 +5684,7 @@
       <c r="U38" s="43"/>
       <c r="V38" s="44"/>
       <c r="W38" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" ht="42" spans="1:23">
@@ -5692,23 +5695,23 @@
         <v>47</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="30"/>
       <c r="J39" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L39" s="37"/>
       <c r="M39" s="36"/>
@@ -5722,7 +5725,7 @@
       <c r="U39" s="43"/>
       <c r="V39" s="44"/>
       <c r="W39" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:23">
@@ -5733,23 +5736,23 @@
         <v>47</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K40" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L40" s="37"/>
       <c r="M40" s="36"/>
@@ -5763,7 +5766,7 @@
       <c r="U40" s="43"/>
       <c r="V40" s="44"/>
       <c r="W40" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:23">
@@ -5774,26 +5777,26 @@
         <v>47</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="J41" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
@@ -5806,7 +5809,7 @@
       <c r="U41" s="43"/>
       <c r="V41" s="44"/>
       <c r="W41" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" ht="42" spans="1:23">
@@ -5817,23 +5820,23 @@
         <v>47</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="J42" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" s="36"/>
@@ -5847,7 +5850,7 @@
       <c r="U42" s="43"/>
       <c r="V42" s="44"/>
       <c r="W42" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" ht="42" spans="1:23">
@@ -5858,26 +5861,26 @@
         <v>47</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="J43" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L43" s="37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
@@ -5890,7 +5893,7 @@
       <c r="U43" s="43"/>
       <c r="V43" s="44"/>
       <c r="W43" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" ht="42" spans="1:23">
@@ -5901,26 +5904,26 @@
         <v>47</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="30"/>
       <c r="J44" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L44" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
@@ -5933,7 +5936,7 @@
       <c r="U44" s="43"/>
       <c r="V44" s="44"/>
       <c r="W44" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="42" spans="1:23">
@@ -5944,26 +5947,26 @@
         <v>47</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
@@ -5976,7 +5979,7 @@
       <c r="U45" s="43"/>
       <c r="V45" s="44"/>
       <c r="W45" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" ht="42" spans="1:23">
@@ -5987,26 +5990,26 @@
         <v>47</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
       <c r="J46" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -6019,7 +6022,7 @@
       <c r="U46" s="43"/>
       <c r="V46" s="44"/>
       <c r="W46" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" ht="50.25" spans="1:23">
@@ -6030,26 +6033,26 @@
         <v>47</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
       <c r="J47" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M47" s="36"/>
       <c r="N47" s="36"/>
@@ -6062,7 +6065,7 @@
       <c r="U47" s="43"/>
       <c r="V47" s="44"/>
       <c r="W47" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="42" spans="1:23">
@@ -6073,26 +6076,26 @@
         <v>47</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K48" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
@@ -6105,7 +6108,7 @@
       <c r="U48" s="43"/>
       <c r="V48" s="44"/>
       <c r="W48" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="42" spans="1:23">
@@ -6116,26 +6119,26 @@
         <v>47</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
       <c r="J49" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
@@ -6148,7 +6151,7 @@
       <c r="U49" s="43"/>
       <c r="V49" s="44"/>
       <c r="W49" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" ht="42" spans="1:23">
@@ -6159,26 +6162,26 @@
         <v>47</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
@@ -6191,7 +6194,7 @@
       <c r="U50" s="43"/>
       <c r="V50" s="44"/>
       <c r="W50" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="42" spans="1:23">
@@ -6202,26 +6205,26 @@
         <v>47</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
       <c r="J51" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K51" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L51" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M51" s="36"/>
       <c r="N51" s="36"/>
@@ -6234,7 +6237,7 @@
       <c r="U51" s="43"/>
       <c r="V51" s="44"/>
       <c r="W51" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" ht="50.25" spans="1:23">
@@ -6245,23 +6248,23 @@
         <v>47</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="30"/>
       <c r="J52" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L52" s="37"/>
       <c r="M52" s="36"/>
@@ -6275,7 +6278,7 @@
       <c r="U52" s="43"/>
       <c r="V52" s="44"/>
       <c r="W52" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" ht="42" spans="1:23">
@@ -6286,26 +6289,26 @@
         <v>47</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
       <c r="I53" s="30"/>
       <c r="J53" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K53" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
@@ -6318,7 +6321,7 @@
       <c r="U53" s="43"/>
       <c r="V53" s="44"/>
       <c r="W53" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" ht="58.5" spans="1:23">
@@ -6329,23 +6332,23 @@
         <v>47</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
       <c r="J54" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L54" s="37"/>
       <c r="M54" s="36"/>
@@ -6358,7 +6361,7 @@
       <c r="T54" s="36"/>
       <c r="U54" s="43"/>
       <c r="V54" s="44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W54" s="46" t="s">
         <v>55</v>
@@ -6372,26 +6375,26 @@
         <v>47</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
       <c r="I55" s="30"/>
       <c r="J55" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K55" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
@@ -6415,26 +6418,26 @@
         <v>47</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
       <c r="J56" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K56" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
@@ -6458,26 +6461,26 @@
         <v>47</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
       <c r="J57" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
@@ -6501,23 +6504,23 @@
         <v>47</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
       <c r="I58" s="30"/>
       <c r="J58" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L58" s="37"/>
       <c r="M58" s="36"/>
@@ -6531,7 +6534,7 @@
       <c r="U58" s="43"/>
       <c r="V58" s="44"/>
       <c r="W58" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" ht="42" spans="1:23">
@@ -6542,26 +6545,26 @@
         <v>47</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
       <c r="I59" s="30"/>
       <c r="J59" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L59" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
@@ -6574,7 +6577,7 @@
       <c r="U59" s="43"/>
       <c r="V59" s="44"/>
       <c r="W59" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" ht="42" spans="1:23">
@@ -6585,23 +6588,23 @@
         <v>47</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L60" s="37"/>
       <c r="M60" s="36"/>
@@ -6615,7 +6618,7 @@
       <c r="U60" s="43"/>
       <c r="V60" s="44"/>
       <c r="W60" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" ht="42" spans="1:23">
@@ -6626,26 +6629,26 @@
         <v>47</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="30"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K61" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L61" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -6658,7 +6661,7 @@
       <c r="U61" s="43"/>
       <c r="V61" s="44"/>
       <c r="W61" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" ht="42" spans="1:23">
@@ -6669,23 +6672,23 @@
         <v>47</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
       <c r="J62" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K62" s="37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L62" s="37"/>
       <c r="M62" s="36"/>
@@ -6699,7 +6702,7 @@
       <c r="U62" s="43"/>
       <c r="V62" s="44"/>
       <c r="W62" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" ht="42" spans="1:23">
@@ -6710,23 +6713,23 @@
         <v>47</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
       <c r="J63" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K63" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L63" s="37"/>
       <c r="M63" s="36"/>
@@ -6740,7 +6743,7 @@
       <c r="U63" s="43"/>
       <c r="V63" s="44"/>
       <c r="W63" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:23">
@@ -6751,26 +6754,26 @@
         <v>47</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="30"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
       <c r="J64" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K64" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L64" s="37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
@@ -6783,7 +6786,7 @@
       <c r="U64" s="43"/>
       <c r="V64" s="44"/>
       <c r="W64" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" ht="42" spans="1:23">
@@ -6794,23 +6797,23 @@
         <v>47</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
       <c r="H65" s="30"/>
       <c r="I65" s="30"/>
       <c r="J65" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K65" s="37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L65" s="37"/>
       <c r="M65" s="36"/>
@@ -6824,7 +6827,7 @@
       <c r="U65" s="43"/>
       <c r="V65" s="44"/>
       <c r="W65" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" ht="42" spans="1:23">
@@ -6835,26 +6838,26 @@
         <v>47</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
       <c r="J66" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K66" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
@@ -6867,7 +6870,7 @@
       <c r="U66" s="43"/>
       <c r="V66" s="44"/>
       <c r="W66" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" ht="42" spans="1:23">
@@ -6878,23 +6881,23 @@
         <v>47</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
       <c r="J67" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K67" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L67" s="37"/>
       <c r="M67" s="36"/>
@@ -6908,7 +6911,7 @@
       <c r="U67" s="43"/>
       <c r="V67" s="44"/>
       <c r="W67" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="42" spans="1:23">
@@ -6919,23 +6922,23 @@
         <v>47</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K68" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L68" s="37"/>
       <c r="M68" s="36"/>
@@ -6949,7 +6952,7 @@
       <c r="U68" s="43"/>
       <c r="V68" s="44"/>
       <c r="W68" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" ht="42" spans="1:23">
@@ -6960,26 +6963,26 @@
         <v>47</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
       <c r="J69" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K69" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
@@ -6992,7 +6995,7 @@
       <c r="U69" s="43"/>
       <c r="V69" s="44"/>
       <c r="W69" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" ht="42" spans="1:23">
@@ -7003,23 +7006,23 @@
         <v>47</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
       <c r="J70" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K70" s="37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L70" s="37"/>
       <c r="M70" s="36"/>
@@ -7033,7 +7036,7 @@
       <c r="U70" s="43"/>
       <c r="V70" s="44"/>
       <c r="W70" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" ht="42" spans="1:23">
@@ -7044,26 +7047,26 @@
         <v>47</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
       <c r="J71" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K71" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
@@ -7076,7 +7079,7 @@
       <c r="U71" s="43"/>
       <c r="V71" s="44"/>
       <c r="W71" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" ht="42" spans="1:23">
@@ -7087,26 +7090,26 @@
         <v>47</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
       <c r="J72" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K72" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L72" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
@@ -7119,7 +7122,7 @@
       <c r="U72" s="43"/>
       <c r="V72" s="44"/>
       <c r="W72" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" ht="42" spans="1:23">
@@ -7130,26 +7133,26 @@
         <v>47</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="30"/>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
       <c r="J73" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K73" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L73" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
@@ -7162,7 +7165,7 @@
       <c r="U73" s="43"/>
       <c r="V73" s="44"/>
       <c r="W73" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" ht="42" spans="1:23">
@@ -7173,26 +7176,26 @@
         <v>47</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
       <c r="I74" s="30"/>
       <c r="J74" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K74" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
@@ -7205,7 +7208,7 @@
       <c r="U74" s="43"/>
       <c r="V74" s="44"/>
       <c r="W74" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" ht="42" spans="1:23">
@@ -7216,26 +7219,26 @@
         <v>47</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="30"/>
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
       <c r="J75" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K75" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L75" s="37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
@@ -7248,7 +7251,7 @@
       <c r="U75" s="43"/>
       <c r="V75" s="44"/>
       <c r="W75" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="42" spans="1:23">
@@ -7259,26 +7262,26 @@
         <v>47</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="30"/>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
       <c r="J76" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K76" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L76" s="37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
@@ -7291,7 +7294,7 @@
       <c r="U76" s="43"/>
       <c r="V76" s="44"/>
       <c r="W76" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" ht="58.5" spans="1:23">
@@ -7305,23 +7308,23 @@
         <v>48</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
       <c r="J77" s="37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K77" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L77" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
@@ -7348,22 +7351,22 @@
         <v>48</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F78" s="29">
-        <v>45495</v>
+        <v>45576</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H78" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J78" s="35" t="s">
         <v>54</v>
@@ -7392,25 +7395,25 @@
         <v>47</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F79" s="29">
         <v>45569</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H79" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J79" s="35" t="s">
         <v>54</v>
@@ -7442,23 +7445,23 @@
         <v>48</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F80" s="54"/>
       <c r="G80" s="55"/>
       <c r="H80" s="55"/>
       <c r="I80" s="55"/>
       <c r="J80" s="65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K80" s="65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L80" s="65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M80" s="66"/>
       <c r="N80" s="66"/>
@@ -7482,25 +7485,25 @@
         <v>47</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E81" s="53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F81" s="29">
-        <v>45510</v>
+        <v>45576</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I81" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J81" s="67" t="s">
         <v>54</v>
@@ -7529,26 +7532,26 @@
         <v>47</v>
       </c>
       <c r="C82" s="61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D82" s="60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E82" s="62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F82" s="63"/>
       <c r="G82" s="64"/>
       <c r="H82" s="64"/>
       <c r="I82" s="64"/>
       <c r="J82" s="68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K82" s="68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L82" s="68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M82" s="69"/>
       <c r="N82" s="69"/>
@@ -17500,42 +17503,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -17568,22 +17571,22 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:4">
@@ -17591,139 +17594,139 @@
         <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" s="8">
         <v>446.447</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -18711,7 +18714,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>54</v>
@@ -18719,10 +18722,10 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:2">
